--- a/Guidewire/TestData/login data.xlsx
+++ b/Guidewire/TestData/login data.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C0490114-1388-441C-8F81-108DE16E2AA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\151508\git\Guidewire\Guidewire\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C97870A-86D9-47AF-BB74-17CCF0662491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="11520" windowHeight="7875" xr2:uid="{D3F5422E-35DB-4918-9631-71B9FCA56D73}"/>
+    <workbookView xWindow="3840" yWindow="3045" windowWidth="11520" windowHeight="7875" xr2:uid="{D3F5422E-35DB-4918-9631-71B9FCA56D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -427,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D0E8-3888-4247-9535-3768C8FDAFC3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
